--- a/switches/aps_on_switches.xlsx
+++ b/switches/aps_on_switches.xlsx
@@ -274,7 +274,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,12 +604,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:81:43:B4:FB:E4:84:81</t>
+          <t>B4:FB:E4:84:81:42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Port 1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B4:FB:E4:E5:31:12:B4:FB:E4:E5:31</t>
+          <t>B4:FB:E4:E5:31:11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Port 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:81:03:B4:FB:E4:84:81</t>
+          <t>B4:FB:E4:84:81:02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Port 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B4:FB:E4:E5:4F:02:B4:FB:E4:E5:4F</t>
+          <t>B4:FB:E4:E5:4F:01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Port 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -687,22 +687,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>BUESCSW31</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gi1/0/47</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>BUESCSW30</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>84:B5:17:19:59</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Port 24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>To-BUE...</t>
         </is>
       </c>
     </row>
@@ -714,17 +714,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>C8:03:F5:1F:0D:E2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gi1/0/47</t>
+          <t>Gi1/0/49</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BUESCSW30</t>
+          <t>BUESCSW09</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C8:03:F5:1F:0D:E2</t>
+          <t>B4:FB:E4:84:66:32</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gi1/0/49</t>
+          <t>Gi1/0/20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BUESCSW09</t>
+          <t>BUESCAP576</t>
         </is>
       </c>
     </row>
@@ -758,17 +758,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:66:32</t>
+          <t>B4:FB:E4:84:7C:92</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gi1/0/20</t>
+          <t>Gi1/0/8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BUESCAP576</t>
+          <t>BUESCAP219</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:7C:92</t>
+          <t>B4:FB:E4:84:61:AE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gi1/0/8</t>
+          <t>Gi1/0/18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BUESCAP219</t>
+          <t>BUESCAP281</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:61:AE</t>
+          <t>B4:FB:E4:84:6C:72</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gi1/0/18</t>
+          <t>Gi1/0/4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BUESCAP281</t>
+          <t>BUESCAP293</t>
         </is>
       </c>
     </row>
@@ -824,17 +824,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:6C:72</t>
+          <t>B4:FB:E4:84:62:CA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gi1/0/4</t>
+          <t>Gi1/0/5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BUESCAP293</t>
+          <t>BUESCAP294</t>
         </is>
       </c>
     </row>
@@ -846,17 +846,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:62:CA</t>
+          <t>B4:FB:E4:84:74:7E</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gi1/0/5</t>
+          <t>Gi1/0/7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BUESCAP294</t>
+          <t>BUESCAP296</t>
         </is>
       </c>
     </row>
@@ -868,17 +868,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:74:7E</t>
+          <t>B4:FB:E4:84:6D:46</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gi1/0/7</t>
+          <t>Gi1/0/2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BUESCAP296</t>
+          <t>BUESCAP291</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:6D:46</t>
+          <t>B4:FB:E4:84:78:0E</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gi1/0/2</t>
+          <t>Gi1/0/1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BUESCAP291</t>
+          <t>BUESCAP290</t>
         </is>
       </c>
     </row>
@@ -912,17 +912,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:78:0E</t>
+          <t>B4:FB:E4:84:71:6A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gi1/0/1</t>
+          <t>Gi1/0/21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BUESCAP290</t>
+          <t>BUESCAP282</t>
         </is>
       </c>
     </row>
@@ -934,17 +934,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:71:6A</t>
+          <t>B4:FB:E4:84:81:52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gi1/0/21</t>
+          <t>Gi1/0/3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BUESCAP282</t>
+          <t>BUESCAP292</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:81:52</t>
+          <t>B4:FB:E4:84:70:FE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gi1/0/3</t>
+          <t>Gi1/0/6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BUESCAP292</t>
+          <t>BUESCAP295</t>
         </is>
       </c>
     </row>
@@ -978,37 +978,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B4:FB:E4:84:70:FE</t>
+          <t>B4:FB:E4:84:85:7A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gi1/0/6</t>
+          <t>Gi1/0/17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>BUESCAP295</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BUESCSW31</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>B4:FB:E4:84:85:7A</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Gi1/0/17</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>BUESCAP276</t>
         </is>
